--- a/src/main/resources/excel/PositionMGNT.xlsx
+++ b/src/main/resources/excel/PositionMGNT.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dean/Documents/ALDI/bi/git/PositionManagement/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALDI\Workspace_ALDI\PositionManagement\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D21E9-D81A-BD4E-8DC7-4C154282FE45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{62C648F3-B8B9-C448-B9F7-293D9DD22469}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction" sheetId="1" r:id="rId1"/>
     <sheet name="Position" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>transactionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,29 +96,25 @@
   </si>
   <si>
     <t>Sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -169,7 +160,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,14 +471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FC36C5-6D57-6C4F-89A0-24FF9B687BC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
@@ -523,16 +514,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -546,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -569,16 +560,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -592,16 +583,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -615,16 +606,16 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
       <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -638,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -657,72 +648,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5C995-AFAE-8E4C-8A46-AD1F964CA6FE}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
